--- a/xtt_demo/ZXXT_DEMO_052_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_052_R.XLSX
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modekz\AppData\Local\SAP\SAP GUI\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modekz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809286F0-FF9D-4DB9-AF8D-B6B66F67CD00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3102BE80-169D-4CCA-9B77-FAF745F44646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="782" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group by 1 field" sheetId="1" r:id="rId1"/>
     <sheet name="group by 1 field(level orders)" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,7 +150,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t>                                                                                                  2</t>
+  </si>
+  <si>
+    <t>                                                                                                  4</t>
+  </si>
+  <si>
+    <t>                                                                                                  5</t>
+  </si>
   <si>
     <t>&lt;Caption 1 /&gt;</t>
   </si>
@@ -189,10 +209,42 @@
     <t>---------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
   </si>
   <si>
-    <t xml:space="preserve">End of  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub totals of group  </t>
+    <r>
+      <t xml:space="preserve">Check the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>F5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> cell ABAP statement =CONDENSE( )  ! works in new SAP systems</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">End of GRP A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of GRP B </t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of GRP C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of GRP D </t>
   </si>
   <si>
     <t xml:space="preserve">Totals for all groups </t>
@@ -216,7 +268,10 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Groups count 4 </t>
+    <t>Groups count                                                                                                   4</t>
+  </si>
+  <si>
+    <t>Groups count 4</t>
   </si>
   <si>
     <t>Level order does not matter</t>
@@ -231,23 +286,41 @@
     <t>SUM 2</t>
   </si>
   <si>
-    <t>Sub items count 2 </t>
-  </si>
-  <si>
-    <t>Sub items count 4 </t>
-  </si>
-  <si>
-    <t>Sub items count 5 </t>
+    <t>Sub items count                                                                                                   2</t>
+  </si>
+  <si>
+    <t>Sub items count                                                                                                   4</t>
+  </si>
+  <si>
+    <t>Sub items count                                                                                                   5</t>
+  </si>
+  <si>
+    <t>Sub totals of group GRP A</t>
+  </si>
+  <si>
+    <t>Sub totals of group GRP B</t>
+  </si>
+  <si>
+    <t>Sub totals of group GRP C</t>
+  </si>
+  <si>
+    <t>Sub totals of group GRP D</t>
+  </si>
+  <si>
+    <t>Text goes to the bottom ;top=abap_false</t>
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>https://bizhuka.github.io/xtt/cond/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -418,6 +491,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -879,7 +983,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -922,8 +1026,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -973,6 +1078,17 @@
     <xf numFmtId="4" fontId="0" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,50 +1098,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1340,417 +1466,451 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="22"/>
-    <col customWidth="1" max="2" min="2" width="46"/>
-    <col customWidth="1" max="3" min="3" width="41.85546875"/>
-    <col customWidth="1" max="4" min="4" width="33.42578125"/>
-    <col customWidth="1" max="5" min="5" width="33.42578125"/>
-    <col customWidth="1" max="6" min="6" width="33.42578125"/>
+    <col customWidth="1" hidden="1" max="2" min="2" outlineLevel="1" width="77.44140625"/>
+    <col customWidth="1" hidden="1" max="3" min="3" outlineLevel="1" width="47.5546875"/>
+    <col customWidth="1" hidden="1" max="4" min="4" outlineLevel="1" width="33.77734375"/>
+    <col collapsed="1" customWidth="1" max="5" min="5" width="46"/>
+    <col customWidth="1" max="6" min="6" width="41.88671875"/>
+    <col customWidth="1" max="7" min="7" width="33.44140625"/>
+    <col customWidth="1" max="8" min="8" width="33.44140625"/>
+    <col customWidth="1" max="9" min="9" width="33.44140625"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="A1" s="13" t="s"/>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
+      <c r="D1" s="13"/>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="15.75">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
       <c r="A4" t="s"/>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="D4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f>"Sub items count " &amp; D$4</f>
+      </c>
+      <c r="G4" s="7">
         <v>25529.04</v>
       </c>
-      <c r="E4" s="8">
+      <c r="H4" s="8">
         <v>14636.76</v>
       </c>
     </row>
-    <row r="5" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="5" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A5" t="s"/>
-      <c r="B5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="E5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12">
         <v>5971.44</v>
       </c>
-      <c r="E5" s="12">
+      <c r="H5" s="12">
         <v>5021.46</v>
       </c>
     </row>
-    <row r="6" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="6" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A6" t="s"/>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="12">
         <v>9476.79</v>
       </c>
-      <c r="E6" s="12">
+      <c r="H6" s="12">
         <v>3683.27</v>
       </c>
     </row>
-    <row r="7" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="7" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A7" t="s"/>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="E7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="12">
         <v>4604.00</v>
       </c>
-      <c r="E7" s="12">
+      <c r="H7" s="12">
         <v>5525.85</v>
       </c>
     </row>
-    <row r="8" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="8" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A8" t="s"/>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="12">
         <v>5476.81</v>
       </c>
-      <c r="E8" s="12">
+      <c r="H8" s="12">
         <v>406.18</v>
       </c>
     </row>
     <row r="9" customHeight="1" ht="15.75">
       <c r="A9" t="s"/>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" customHeight="1" ht="15.75">
       <c r="A10" t="s"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" customHeight="1" ht="15.75">
       <c r="A11" t="s"/>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="D11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f>"Sub items count " &amp; D$11</f>
+      </c>
+      <c r="G11" s="7">
         <v>18771.63</v>
       </c>
-      <c r="E11" s="8">
+      <c r="H11" s="8">
         <v>17290.43</v>
       </c>
     </row>
-    <row r="12" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="12" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A12" t="s"/>
-      <c r="B12" s="10" t="s">
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2276.75</v>
+      </c>
+      <c r="H12" s="12">
+        <v>7717.20</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
+      <c r="A13" t="s"/>
+      <c r="E13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="12">
+        <v>2159.71</v>
+      </c>
+      <c r="H13" s="12">
+        <v>2260.94</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
+      <c r="A14" t="s"/>
+      <c r="E14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12">
+        <v>5451.87</v>
+      </c>
+      <c r="H14" s="12">
+        <v>4061.85</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
+      <c r="A15" t="s"/>
+      <c r="E15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1196.35</v>
+      </c>
+      <c r="H15" s="12">
+        <v>522.46</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
+      <c r="A16" t="s"/>
+      <c r="E16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="12">
-        <v>2276.75</v>
-      </c>
-      <c r="E12" s="12">
-        <v>7717.20</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" ht="15.75" outlineLevel="1">
-      <c r="A13" t="s"/>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="12">
-        <v>2159.71</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2260.94</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" ht="15.75" outlineLevel="1">
-      <c r="A14" t="s"/>
-      <c r="B14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="12">
-        <v>5451.87</v>
-      </c>
-      <c r="E14" s="12">
-        <v>4061.85</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" ht="15.75" outlineLevel="1">
-      <c r="A15" t="s"/>
-      <c r="B15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1196.35</v>
-      </c>
-      <c r="E15" s="12">
-        <v>522.46</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" ht="15.75" outlineLevel="1">
-      <c r="A16" t="s"/>
-      <c r="B16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="F16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="12">
         <v>7686.95</v>
       </c>
-      <c r="E16" s="12">
+      <c r="H16" s="12">
         <v>2727.98</v>
       </c>
     </row>
     <row r="17" customHeight="1" ht="15.75">
       <c r="A17" t="s"/>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" customHeight="1" ht="15.75">
       <c r="A18" t="s"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" customHeight="1" ht="15.75">
       <c r="A19" t="s"/>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="D19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f>"Sub items count " &amp; D$19</f>
+      </c>
+      <c r="G19" s="7">
         <v>5521.68</v>
       </c>
-      <c r="E19" s="8">
+      <c r="H19" s="8">
         <v>6834.03</v>
       </c>
     </row>
-    <row r="20" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="20" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A20" t="s"/>
-      <c r="B20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="E20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="12">
         <v>3031.38</v>
       </c>
-      <c r="E20" s="12">
+      <c r="H20" s="12">
         <v>445.22</v>
       </c>
     </row>
-    <row r="21" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="21" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A21" t="s"/>
-      <c r="B21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="E21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="12">
         <v>2490.30</v>
       </c>
-      <c r="E21" s="12">
+      <c r="H21" s="12">
         <v>6388.81</v>
       </c>
     </row>
     <row r="22" customHeight="1" ht="15.75">
       <c r="A22" t="s"/>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" customHeight="1" ht="15.75">
       <c r="A23" t="s"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" customHeight="1" ht="15.75">
       <c r="A24" t="s"/>
-      <c r="B24" s="5" t="s">
+      <c r="D24" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f>"Sub items count " &amp; D$24</f>
+      </c>
+      <c r="G24" s="7">
+        <v>6312.51</v>
+      </c>
+      <c r="H24" s="8">
+        <v>15128.71</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
+      <c r="A25" t="s"/>
+      <c r="E25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="7">
-        <v>6312.51</v>
-      </c>
-      <c r="E24" s="8">
-        <v>15128.71</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" ht="15.75" outlineLevel="1">
-      <c r="A25" t="s"/>
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="F25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="12">
         <v>689.66</v>
       </c>
-      <c r="E25" s="12">
+      <c r="H25" s="12">
         <v>518.60</v>
       </c>
     </row>
-    <row r="26" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="26" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A26" t="s"/>
-      <c r="B26" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="E26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="12">
         <v>4573.55</v>
       </c>
-      <c r="E26" s="12">
+      <c r="H26" s="12">
         <v>5436.00</v>
       </c>
     </row>
-    <row r="27" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="27" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A27" t="s"/>
-      <c r="B27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="E27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="12">
         <v>978.18</v>
       </c>
-      <c r="E27" s="12">
+      <c r="H27" s="12">
         <v>295.55</v>
       </c>
     </row>
-    <row r="28" customHeight="1" ht="15.75" outlineLevel="1">
+    <row r="28" customHeight="1" ht="15.75" hidden="1" outlineLevel="1">
       <c r="A28" t="s"/>
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="E28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="12">
         <v>71.12</v>
       </c>
-      <c r="E28" s="12">
+      <c r="H28" s="12">
         <v>8878.56</v>
       </c>
     </row>
     <row r="29" customHeight="1" ht="15.75">
       <c r="A29" t="s"/>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" customHeight="1" ht="15.75">
       <c r="A30" t="s"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" customHeight="1" ht="24.75">
       <c r="A31" s="4" t="s"/>
-      <c r="B31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" customHeight="1" ht="24.75">
       <c r="A32" t="s"/>
-      <c r="B32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="19">
+      <c r="B32" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="19">
         <v>56134.86</v>
       </c>
-      <c r="E32" s="20">
+      <c r="H32" s="20">
         <v>53889.93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B31:E31"/>
+  <mergeCells count="2">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{99930FE1-6C5C-4EEE-9375-0D4F6143F800}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1761,17 +1921,17 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="22"/>
     <col customWidth="1" max="2" min="2" width="46"/>
-    <col customWidth="1" max="3" min="3" width="41.85546875"/>
-    <col customWidth="1" max="4" min="4" width="33.42578125"/>
-    <col customWidth="1" max="5" min="5" width="33.42578125"/>
+    <col customWidth="1" max="3" min="3" width="80.44140625"/>
+    <col customWidth="1" max="4" min="4" width="33.44140625"/>
+    <col customWidth="1" max="5" min="5" width="33.44140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1779,28 +1939,28 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s"/>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" s="7">
         <v>25529.04</v>
@@ -1812,10 +1972,10 @@
     <row r="5" hidden="1" outlineLevel="1">
       <c r="A5" s="15" t="s"/>
       <c r="B5" s="10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12">
         <v>5971.44</v>
@@ -1827,10 +1987,10 @@
     <row r="6" hidden="1" outlineLevel="1">
       <c r="A6" s="15" t="s"/>
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12">
         <v>9476.79</v>
@@ -1842,10 +2002,10 @@
     <row r="7" hidden="1" outlineLevel="1">
       <c r="A7" s="15" t="s"/>
       <c r="B7" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" s="12">
         <v>4604.00</v>
@@ -1857,10 +2017,10 @@
     <row r="8" hidden="1" outlineLevel="1">
       <c r="A8" s="15" t="s"/>
       <c r="B8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" s="12">
         <v>5476.81</v>
@@ -1872,7 +2032,7 @@
     <row r="9">
       <c r="A9" s="15" t="s"/>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1885,10 +2045,10 @@
     <row r="11">
       <c r="A11" s="15" t="s"/>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
         <v>18771.63</v>
@@ -1900,10 +2060,10 @@
     <row r="12" hidden="1" outlineLevel="1">
       <c r="A12" s="15" t="s"/>
       <c r="B12" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D12" s="12">
         <v>2276.75</v>
@@ -1915,10 +2075,10 @@
     <row r="13" hidden="1" outlineLevel="1">
       <c r="A13" s="15" t="s"/>
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D13" s="12">
         <v>2159.71</v>
@@ -1930,10 +2090,10 @@
     <row r="14" hidden="1" outlineLevel="1">
       <c r="A14" s="15" t="s"/>
       <c r="B14" s="10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D14" s="12">
         <v>5451.87</v>
@@ -1945,10 +2105,10 @@
     <row r="15" hidden="1" outlineLevel="1">
       <c r="A15" s="15" t="s"/>
       <c r="B15" s="10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D15" s="12">
         <v>1196.35</v>
@@ -1960,10 +2120,10 @@
     <row r="16" hidden="1" outlineLevel="1">
       <c r="A16" s="15" t="s"/>
       <c r="B16" s="10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D16" s="12">
         <v>7686.95</v>
@@ -1975,7 +2135,7 @@
     <row r="17">
       <c r="A17" s="15" t="s"/>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -1988,10 +2148,10 @@
     <row r="19">
       <c r="A19" s="15" t="s"/>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
         <v>5521.68</v>
@@ -2003,10 +2163,10 @@
     <row r="20" hidden="1" outlineLevel="1">
       <c r="A20" s="15" t="s"/>
       <c r="B20" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D20" s="12">
         <v>3031.38</v>
@@ -2018,10 +2178,10 @@
     <row r="21" hidden="1" outlineLevel="1">
       <c r="A21" s="15" t="s"/>
       <c r="B21" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D21" s="12">
         <v>2490.30</v>
@@ -2033,7 +2193,7 @@
     <row r="22">
       <c r="A22" s="15" t="s"/>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2046,10 +2206,10 @@
     <row r="24">
       <c r="A24" s="15" t="s"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D24" s="7">
         <v>6312.51</v>
@@ -2061,10 +2221,10 @@
     <row r="25" hidden="1" outlineLevel="1">
       <c r="A25" s="15" t="s"/>
       <c r="B25" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D25" s="12">
         <v>689.66</v>
@@ -2076,10 +2236,10 @@
     <row r="26" hidden="1" outlineLevel="1">
       <c r="A26" s="15" t="s"/>
       <c r="B26" s="10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D26" s="12">
         <v>4573.55</v>
@@ -2091,10 +2251,10 @@
     <row r="27" hidden="1" outlineLevel="1">
       <c r="A27" s="15" t="s"/>
       <c r="B27" s="10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D27" s="12">
         <v>978.18</v>
@@ -2106,10 +2266,10 @@
     <row r="28" hidden="1" outlineLevel="1">
       <c r="A28" s="15" t="s"/>
       <c r="B28" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D28" s="12">
         <v>71.12</v>
@@ -2121,7 +2281,7 @@
     <row r="29">
       <c r="A29" s="15" t="s"/>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2133,20 +2293,20 @@
     </row>
     <row r="31">
       <c r="A31" s="16" t="s"/>
-      <c r="B31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
+      <c r="B31" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32">
       <c r="A32" s="15" t="s"/>
       <c r="B32" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D32" s="19">
         <v>56134.86</v>
